--- a/sputnik/personal/uch/uch34.xlsx
+++ b/sputnik/personal/uch/uch34.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -37,6 +34,12 @@
   </si>
   <si>
     <t>Оплачен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №34</t>
   </si>
 </sst>
 </file>
@@ -74,7 +77,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -121,37 +124,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -168,17 +145,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -502,76 +476,76 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>43221</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5">
-        <v>10413.48</v>
-      </c>
-      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
+        <v>43221</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10413.48</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>43366</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
         <v>10413.48</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>43586</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7">
-        <v>10073.64</v>
-      </c>
-      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
+        <v>43586</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>10073.64</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>43710</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
         <v>10073.64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch34.xlsx
+++ b/sputnik/personal/uch/uch34.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Наименование / садовый участок №34</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -128,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -154,6 +157,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -464,7 +468,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -540,9 +544,15 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="11">
+        <v>43952</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7">
+        <v>11271.78</v>
+      </c>
       <c r="D7" s="7"/>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch34.xlsx
+++ b/sputnik/personal/uch/uch34.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -131,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -158,6 +158,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -465,10 +468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -554,6 +557,36 @@
         <v>11271.78</v>
       </c>
       <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>44127</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7">
+        <v>11271.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch34.xlsx
+++ b/sputnik/personal/uch/uch34.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -571,9 +574,15 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="11">
+        <v>44317</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7">
+        <v>12038.7</v>
+      </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch34.xlsx
+++ b/sputnik/personal/uch/uch34.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -474,7 +474,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -586,10 +586,16 @@
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="11">
+        <v>44375</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <v>12038.7</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
